--- a/tmp/03092020/03092020.txt-total-recap.xlsx
+++ b/tmp/03092020/03092020.txt-total-recap.xlsx
@@ -455,13 +455,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -470,12 +473,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,37 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Line count</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Word count</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>All characters</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No space</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No punctuation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No space, no punctuation</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No apostrophe</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -533,25 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10123</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8399</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9439</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7715</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10068</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>189</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E5" t="n">
-        <v>838</v>
-      </c>
-      <c r="F5" t="n">
-        <v>961</v>
-      </c>
-      <c r="G5" t="n">
-        <v>781</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1010</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>242</v>
-      </c>
-      <c r="E6" t="n">
-        <v>195</v>
-      </c>
-      <c r="F6" t="n">
-        <v>159</v>
-      </c>
-      <c r="G6" t="n">
-        <v>112</v>
-      </c>
-      <c r="H6" t="n">
-        <v>242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
-      </c>
-      <c r="C7" t="n">
-        <v>802</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4056</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3348</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3805</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3097</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4046</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>82</v>
-      </c>
-      <c r="D8" t="n">
-        <v>421</v>
-      </c>
-      <c r="E8" t="n">
-        <v>356</v>
-      </c>
-      <c r="F8" t="n">
-        <v>388</v>
-      </c>
-      <c r="G8" t="n">
-        <v>323</v>
-      </c>
-      <c r="H8" t="n">
-        <v>421</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>89</v>
-      </c>
-      <c r="E9" t="n">
-        <v>73</v>
-      </c>
-      <c r="F9" t="n">
-        <v>83</v>
-      </c>
-      <c r="G9" t="n">
-        <v>67</v>
-      </c>
-      <c r="H9" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29</v>
-      </c>
-      <c r="D10" t="n">
-        <v>141</v>
-      </c>
-      <c r="E10" t="n">
-        <v>116</v>
-      </c>
-      <c r="F10" t="n">
-        <v>123</v>
-      </c>
-      <c r="G10" t="n">
-        <v>98</v>
-      </c>
-      <c r="H10" t="n">
-        <v>141</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +571,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>397</v>
-      </c>
-      <c r="E11" t="n">
-        <v>339</v>
-      </c>
-      <c r="F11" t="n">
-        <v>377</v>
-      </c>
-      <c r="G11" t="n">
-        <v>319</v>
-      </c>
-      <c r="H11" t="n">
-        <v>396</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +581,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22</v>
-      </c>
-      <c r="D12" t="n">
-        <v>128</v>
-      </c>
-      <c r="E12" t="n">
-        <v>107</v>
-      </c>
-      <c r="F12" t="n">
-        <v>123</v>
-      </c>
-      <c r="G12" t="n">
-        <v>102</v>
-      </c>
-      <c r="H12" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +591,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34</v>
-      </c>
-      <c r="D13" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" t="n">
-        <v>148</v>
-      </c>
-      <c r="F13" t="n">
-        <v>163</v>
-      </c>
-      <c r="G13" t="n">
-        <v>131</v>
-      </c>
-      <c r="H13" t="n">
-        <v>180</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +601,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
-      </c>
-      <c r="C14" t="n">
-        <v>641</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3394</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2812</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3237</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2655</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3390</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +611,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
-      </c>
-      <c r="C15" t="n">
-        <v>739</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4007</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3323</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3796</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3112</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3993</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -869,25 +621,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>73</v>
-      </c>
-      <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -899,24 +633,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>69</v>
-      </c>
-      <c r="D17" t="n">
-        <v>366</v>
-      </c>
-      <c r="E17" t="n">
-        <v>305</v>
-      </c>
-      <c r="F17" t="n">
-        <v>347</v>
-      </c>
-      <c r="G17" t="n">
-        <v>286</v>
-      </c>
-      <c r="H17" t="n">
-        <v>365</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -925,25 +641,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57</v>
-      </c>
-      <c r="D18" t="n">
-        <v>349</v>
-      </c>
-      <c r="E18" t="n">
-        <v>295</v>
-      </c>
-      <c r="F18" t="n">
-        <v>332</v>
-      </c>
-      <c r="G18" t="n">
-        <v>278</v>
-      </c>
-      <c r="H18" t="n">
-        <v>349</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +651,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
-      </c>
-      <c r="C19" t="n">
-        <v>374</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1927</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1595</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1757</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1425</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1925</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -981,25 +661,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>31</v>
-      </c>
-      <c r="D20" t="n">
-        <v>173</v>
-      </c>
-      <c r="E20" t="n">
-        <v>145</v>
-      </c>
-      <c r="F20" t="n">
-        <v>118</v>
-      </c>
-      <c r="G20" t="n">
-        <v>90</v>
-      </c>
-      <c r="H20" t="n">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1011,24 +673,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>38</v>
-      </c>
-      <c r="E21" t="n">
-        <v>31</v>
-      </c>
-      <c r="F21" t="n">
-        <v>36</v>
-      </c>
-      <c r="G21" t="n">
-        <v>29</v>
-      </c>
-      <c r="H21" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1037,25 +681,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61</v>
-      </c>
-      <c r="E22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F22" t="n">
-        <v>58</v>
-      </c>
-      <c r="G22" t="n">
-        <v>49</v>
-      </c>
-      <c r="H22" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1065,25 +691,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>18</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17</v>
-      </c>
-      <c r="F23" t="n">
-        <v>16</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1093,25 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>26</v>
-      </c>
-      <c r="D24" t="n">
-        <v>134</v>
-      </c>
-      <c r="E24" t="n">
-        <v>112</v>
-      </c>
-      <c r="F24" t="n">
-        <v>123</v>
-      </c>
-      <c r="G24" t="n">
-        <v>101</v>
-      </c>
-      <c r="H24" t="n">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1121,25 +711,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C25" t="n">
-        <v>81</v>
-      </c>
-      <c r="D25" t="n">
-        <v>458</v>
-      </c>
-      <c r="E25" t="n">
-        <v>388</v>
-      </c>
-      <c r="F25" t="n">
-        <v>421</v>
-      </c>
-      <c r="G25" t="n">
-        <v>351</v>
-      </c>
-      <c r="H25" t="n">
-        <v>454</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1149,25 +721,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="n">
-        <v>57</v>
-      </c>
-      <c r="E26" t="n">
-        <v>48</v>
-      </c>
-      <c r="F26" t="n">
-        <v>32</v>
-      </c>
-      <c r="G26" t="n">
-        <v>23</v>
-      </c>
-      <c r="H26" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1177,25 +731,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>110</v>
-      </c>
-      <c r="E27" t="n">
-        <v>94</v>
-      </c>
-      <c r="F27" t="n">
-        <v>89</v>
-      </c>
-      <c r="G27" t="n">
-        <v>73</v>
-      </c>
-      <c r="H27" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1205,25 +741,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>44</v>
-      </c>
-      <c r="D28" t="n">
-        <v>263</v>
-      </c>
-      <c r="E28" t="n">
-        <v>221</v>
-      </c>
-      <c r="F28" t="n">
-        <v>259</v>
-      </c>
-      <c r="G28" t="n">
-        <v>217</v>
-      </c>
-      <c r="H28" t="n">
-        <v>262</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1233,25 +751,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>167</v>
-      </c>
-      <c r="E29" t="n">
-        <v>143</v>
-      </c>
-      <c r="F29" t="n">
-        <v>115</v>
-      </c>
-      <c r="G29" t="n">
-        <v>91</v>
-      </c>
-      <c r="H29" t="n">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1261,25 +761,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
-      </c>
-      <c r="C30" t="n">
-        <v>61</v>
-      </c>
-      <c r="D30" t="n">
-        <v>337</v>
-      </c>
-      <c r="E30" t="n">
-        <v>282</v>
-      </c>
-      <c r="F30" t="n">
-        <v>270</v>
-      </c>
-      <c r="G30" t="n">
-        <v>215</v>
-      </c>
-      <c r="H30" t="n">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1291,24 +773,6 @@
       <c r="B31" t="n">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" t="n">
-        <v>152</v>
-      </c>
-      <c r="E31" t="n">
-        <v>128</v>
-      </c>
-      <c r="F31" t="n">
-        <v>126</v>
-      </c>
-      <c r="G31" t="n">
-        <v>102</v>
-      </c>
-      <c r="H31" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1317,25 +781,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>90</v>
-      </c>
-      <c r="E32" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" t="n">
-        <v>81</v>
-      </c>
-      <c r="G32" t="n">
-        <v>71</v>
-      </c>
-      <c r="H32" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1347,24 +793,6 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>20</v>
-      </c>
-      <c r="E33" t="n">
-        <v>17</v>
-      </c>
-      <c r="F33" t="n">
-        <v>12</v>
-      </c>
-      <c r="G33" t="n">
-        <v>9</v>
-      </c>
-      <c r="H33" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1373,25 +801,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33</v>
-      </c>
-      <c r="E34" t="n">
-        <v>29</v>
-      </c>
-      <c r="F34" t="n">
-        <v>31</v>
-      </c>
-      <c r="G34" t="n">
-        <v>27</v>
-      </c>
-      <c r="H34" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1401,25 +811,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>42</v>
-      </c>
-      <c r="D35" t="n">
-        <v>240</v>
-      </c>
-      <c r="E35" t="n">
-        <v>199</v>
-      </c>
-      <c r="F35" t="n">
-        <v>235</v>
-      </c>
-      <c r="G35" t="n">
-        <v>194</v>
-      </c>
-      <c r="H35" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1431,29 +823,11 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>20</v>
-      </c>
-      <c r="E36" t="n">
-        <v>18</v>
-      </c>
-      <c r="F36" t="n">
-        <v>19</v>
-      </c>
-      <c r="G36" t="n">
-        <v>17</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
